--- a/pred_ohlcv/54_21/2019-10-27 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 BTC ohlcv.xlsx
@@ -2914,7 +2914,7 @@
         <v>-362.1159212600001</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-378.0792212600001</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-384.9897212600001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-398.4285212400001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-419.2420428200001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-425.8380428200001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-428.4995513300001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-436.3119513300002</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-443.2962513300002</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-437.6313719900002</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-441.0003006800002</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-444.2229911200002</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-450.7479911200002</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-465.2592719700002</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-468.6188719700002</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-493.9982719700001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-501.1130719700001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-482.2082027700002</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-472.0054027700002</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-478.8980204100002</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-499.4281204100002</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-506.3461204100002</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-534.5397204100002</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-518.3116204100002</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-523.1980204100001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-513.8998204100002</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-473.1800204100002</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-469.5634204200003</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-475.2884204200003</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-461.8693204200003</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-562.7462453500001</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-564.1912453500001</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-576.9092453500001</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-643.7847453500001</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-586.2664453500001</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-615.8458453500001</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-572.1522453500002</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-562.7860453500001</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-477.0120646000001</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-652.3563620300005</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-592.3694565800005</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-579.3094982100005</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-574.3385982100004</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-575.7105982100004</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-550.3695625800004</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-561.0730625800004</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-556.9809625800004</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-553.5002625800005</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-548.4228625800005</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-548.6315625800005</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-550.1395625800005</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-550.5389625800005</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-504.8080625800006</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-505.6769625800006</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-509.2191579000006</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-481.5799579000006</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-356.1549571400005</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-349.8627571400006</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-356.8160464600006</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-358.8412189200006</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-356.5153189200006</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-351.8528189200006</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-347.8561189200006</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-341.8899189200006</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-353.1590588500006</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-361.4044280900006</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-364.6364280900006</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-360.1907948200006</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-361.5974948200006</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-351.5036948200006</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-340.4236948200007</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-337.8941895300007</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-340.8998895300007</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-339.6248212700007</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-342.7956568800006</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-344.3317568800006</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-332.3792568800006</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-328.3218180900006</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-326.8405180900007</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-332.8325180900007</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-344.0048180900007</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-365.3390893600009</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-369.4269893600008</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-377.5405893600009</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-378.3445893600008</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-389.1191893600009</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-385.2631893600009</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-389.8805970200009</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-383.7845970200009</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-382.8034970200009</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-372.4937970200008</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-377.3533970200008</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-392.0860969800008</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-392.9274969800009</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-392.7010969800008</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-392.7010969800008</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-391.8508969800009</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-390.2977969800009</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-379.5918920600009</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-377.6897026500009</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-379.2253026500009</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-379.2253026500009</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-376.3331471400008</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-380.4400471400008</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-387.1569471400009</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-381.7404313000009</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-365.2001313000009</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-376.4391313000008</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-377.9836313000009</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-382.0856313400009</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-377.8365313400009</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-383.5552313400009</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-379.4443313400009</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-376.2528313400009</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-363.9865903700008</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-350.3691903700009</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-328.4711845000008</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-295.1386370900008</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-262.5252404300008</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-274.5472313400008</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-266.8825861900008</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-256.1709499400008</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-230.7868439500008</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-242.6807620300008</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-239.1209620300008</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-244.0594620300008</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-227.4491620300008</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-261.0485887000008</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-249.2123455100008</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-253.4177526300008</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-228.8403518300008</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-223.1478812100008</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-228.8696178500008</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-232.5829172800008</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-246.8946173700008</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-262.1998233200008</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-253.1473283300008</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-261.9841756700008</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-251.3825756700008</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-225.8460756700008</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-238.3741696400008</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-221.3354696400008</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-223.3010696400008</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-232.3723156300008</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-235.9055156300008</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-229.8165149800008</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-237.3679149800008</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-267.7289526500005</v>
       </c>
       <c r="H1154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-277.9150330600004</v>
       </c>
       <c r="H1155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-303.3274330600004</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-295.8646660000005</v>
       </c>
       <c r="H1157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-265.6229064100005</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-265.6229064100005</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-259.6754064100005</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-266.7658883100005</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-277.7588042900005</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-260.2212202700005</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-251.9646202700005</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-217.2691545400005</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-192.2209463200005</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-219.2267618100005</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-225.5224598500005</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-237.8940598500005</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-232.1420598500005</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-232.1420598500005</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-235.5777598500005</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-241.3228598500005</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-254.7885598500005</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-247.8293598500005</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-255.2880239200005</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-277.4405239200005</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-291.3008239200005</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-268.9272239200005</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-271.8181239200005</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-287.7624239200005</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-293.8246322100005</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-271.8791938300005</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-278.2334171300005</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-281.8714171300005</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-281.0736171300005</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-281.7917171300004</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-276.6078171300005</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-280.6451171300005</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-283.3408171300005</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-288.8855171300004</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-294.0762125700005</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-291.2361927100005</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-294.9693861800005</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-245.8870358000005</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-256.6439549700004</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-254.0377095900004</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-287.6628611600004</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-278.4614611600005</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-274.4005611600004</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-278.2116879900004</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-274.6664879900004</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-271.5138879900004</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-267.2606019700004</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-254.5025879900004</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-269.2248670300004</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-255.3523032800004</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-213.2127515300004</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-213.2127515300004</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-216.8152514600004</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-223.1843754100003</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-213.2930000100004</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-202.4890753600004</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-191.4127753600004</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-207.5939753600003</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-192.4727753600004</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-172.8106087700004</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-165.0191087700003</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-151.7148087000003</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-165.2065087000003</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-168.1758869800003</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-165.4209869800004</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-175.3480556200003</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-168.3557556200003</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-172.8353970900003</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-155.2231970900003</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-152.3628291200003</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-153.3778291200003</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-149.6215291200003</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-96.37631234000031</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-82.56120856000031</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-82.56120856000031</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-60.90496419000031</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-8.945579370000317</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>2.488320629999683</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>58.67009544999969</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>76.12809550999968</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>117.9118465799997</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>165.6141669999997</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>262.5735293299997</v>
       </c>
       <c r="H1276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>209.3612640899997</v>
       </c>
       <c r="H1277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>177.4872640899997</v>
       </c>
       <c r="H1278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>92.37611619999971</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>121.0331428299997</v>
       </c>
       <c r="H1281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>149.3703069099997</v>
       </c>
       <c r="H1282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>160.0757547299997</v>
       </c>
       <c r="H1283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>172.4650700699997</v>
       </c>
       <c r="H1284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>317.8866734599997</v>
       </c>
       <c r="H1299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>364.8382940099997</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>395.7938940099997</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>369.4530884599997</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>378.2621884599997</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>399.8606149799996</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>715.6943030199997</v>
       </c>
       <c r="H1311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>645.2944538099997</v>
       </c>
       <c r="H1312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>709.8496889199997</v>
       </c>
       <c r="H1313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>654.7073037999997</v>
       </c>
       <c r="H1314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>581.6766840499997</v>
       </c>
       <c r="H1315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>522.4686890899998</v>
       </c>
       <c r="H1316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>573.8948757799998</v>
       </c>
       <c r="H1317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>605.6750071499998</v>
       </c>
       <c r="H1318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>583.8808452699998</v>
       </c>
       <c r="H1319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>503.9438533999998</v>
       </c>
       <c r="H1320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>461.3937996499998</v>
       </c>
       <c r="H1321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>351.5632160099998</v>
       </c>
       <c r="H1322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>498.8719699499998</v>
       </c>
       <c r="H1335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>464.0364977499997</v>
       </c>
       <c r="H1336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>402.5536042499998</v>
       </c>
       <c r="H1337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1338" spans="1:8">
@@ -35180,7 +35180,7 @@
         <v>368.0372042499998</v>
       </c>
       <c r="H1338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1339" spans="1:8">
@@ -35232,7 +35232,7 @@
         <v>382.6208185599998</v>
       </c>
       <c r="H1340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1341" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 BTC ohlcv.xlsx
@@ -2914,7 +2914,7 @@
         <v>-362.1159212600001</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-378.0792212600001</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-384.9897212600001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-398.4285212400001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-419.2420428200001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-425.8380428200001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-428.4995513300001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-436.3119513300002</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-443.2962513300002</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-437.6313719900002</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-441.0003006800002</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-444.2229911200002</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-450.7479911200002</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-465.2592719700002</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-468.6188719700002</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-493.9982719700001</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-501.1130719700001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-482.2082027700002</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-472.0054027700002</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-478.8980204100002</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-499.4281204100002</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-506.3461204100002</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-534.5397204100002</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-518.3116204100002</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-523.1980204100001</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-513.8998204100002</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-473.1800204100002</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-469.5634204200003</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-475.2884204200003</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-461.8693204200003</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-562.7462453500001</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-564.1912453500001</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-576.9092453500001</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-643.7847453500001</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-586.2664453500001</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-615.8458453500001</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-572.1522453500002</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-562.7860453500001</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-477.0120646000001</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-592.3694565800005</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-583.6713982100005</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-579.3094982100005</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-574.3385982100004</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-575.7105982100004</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-550.3695625800004</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-561.0730625800004</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-556.9809625800004</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-553.5002625800005</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-548.4228625800005</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-548.6315625800005</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-550.1395625800005</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-550.5389625800005</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-504.8080625800006</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-505.6769625800006</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-509.2191579000006</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-481.5799579000006</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-469.8537579000006</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-461.2055579000006</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-356.1549571400005</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-349.8627571400006</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-356.8160464600006</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-358.8412189200006</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-356.5153189200006</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-351.8528189200006</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-347.8561189200006</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-341.8899189200006</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-353.1590588500006</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-361.4044280900006</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-364.6364280900006</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-360.1907948200006</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-361.5974948200006</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-351.5036948200006</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-340.4236948200007</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-337.8941895300007</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-340.8998895300007</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-339.6248212700007</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-342.7956568800006</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-344.3317568800006</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-332.3792568800006</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-328.3218180900006</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-326.8405180900007</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-332.8325180900007</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-344.0048180900007</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-365.3390893600009</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-369.4269893600008</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-377.5405893600009</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-378.3445893600008</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-389.1191893600009</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-385.2631893600009</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-389.8805970200009</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-383.7845970200009</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-382.8034970200009</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-372.4937970200008</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-377.3533970200008</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-392.0860969800008</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-392.9274969800009</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-392.7010969800008</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-392.7010969800008</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-391.8508969800009</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-390.2977969800009</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-379.5918920600009</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-377.6897026500009</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-379.2253026500009</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-379.2253026500009</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-376.3331471400008</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-380.4400471400008</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-387.1569471400009</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-381.7404313000009</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-365.2001313000009</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-376.4391313000008</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-377.9836313000009</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-382.0856313400009</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-377.8365313400009</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-383.5552313400009</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-379.4443313400009</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-376.2528313400009</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-363.9865903700008</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-350.3691903700009</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-328.4711845000008</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-295.1386370900008</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-262.5252404300008</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-274.5472313400008</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-266.8825861900008</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-256.1709499400008</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-230.7868439500008</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-242.6807620300008</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-239.1209620300008</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-244.0594620300008</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-227.4491620300008</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-261.0485887000008</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-249.2123455100008</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-253.4177526300008</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-228.8403518300008</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-223.1478812100008</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-228.8696178500008</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-232.5829172800008</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-246.8946173700008</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-262.1998233200008</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-253.1473283300008</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-261.9841756700008</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-251.3825756700008</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-225.8460756700008</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-238.3741696400008</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-221.3354696400008</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-223.3010696400008</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-232.3723156300008</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-235.9055156300008</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-229.8165149800008</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-237.3679149800008</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -30396,7 +30396,7 @@
         <v>-267.7289526500005</v>
       </c>
       <c r="H1154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:8">
@@ -30422,7 +30422,7 @@
         <v>-277.9150330600004</v>
       </c>
       <c r="H1155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-303.3274330600004</v>
       </c>
       <c r="H1156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30474,7 +30474,7 @@
         <v>-295.8646660000005</v>
       </c>
       <c r="H1157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-265.6229064100005</v>
       </c>
       <c r="H1164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-265.6229064100005</v>
       </c>
       <c r="H1165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-259.6754064100005</v>
       </c>
       <c r="H1166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-266.7658883100005</v>
       </c>
       <c r="H1167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-277.7588042900005</v>
       </c>
       <c r="H1168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-260.2212202700005</v>
       </c>
       <c r="H1169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-251.9646202700005</v>
       </c>
       <c r="H1170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-217.2691545400005</v>
       </c>
       <c r="H1171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-192.2209463200005</v>
       </c>
       <c r="H1172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-219.2267618100005</v>
       </c>
       <c r="H1173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-225.5224598500005</v>
       </c>
       <c r="H1174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-237.8940598500005</v>
       </c>
       <c r="H1175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-232.1420598500005</v>
       </c>
       <c r="H1176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-232.1420598500005</v>
       </c>
       <c r="H1177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-235.5777598500005</v>
       </c>
       <c r="H1178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-241.3228598500005</v>
       </c>
       <c r="H1179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-254.7885598500005</v>
       </c>
       <c r="H1180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-247.8293598500005</v>
       </c>
       <c r="H1181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-255.2880239200005</v>
       </c>
       <c r="H1182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-277.4405239200005</v>
       </c>
       <c r="H1183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-291.3008239200005</v>
       </c>
       <c r="H1184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-268.9272239200005</v>
       </c>
       <c r="H1185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-271.8181239200005</v>
       </c>
       <c r="H1186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-287.7624239200005</v>
       </c>
       <c r="H1187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-293.8246322100005</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-271.8791938300005</v>
       </c>
       <c r="H1189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-278.2334171300005</v>
       </c>
       <c r="H1190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-281.8714171300005</v>
       </c>
       <c r="H1191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-281.0736171300005</v>
       </c>
       <c r="H1192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-281.7917171300004</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-276.6078171300005</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-280.6451171300005</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-283.3408171300005</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-288.8855171300004</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-294.0762125700005</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-291.2361927100005</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-294.9693861800005</v>
       </c>
       <c r="H1200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-245.8870358000005</v>
       </c>
       <c r="H1208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-256.6439549700004</v>
       </c>
       <c r="H1209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-254.0377095900004</v>
       </c>
       <c r="H1210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-287.6628611600004</v>
       </c>
       <c r="H1234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-278.4614611600005</v>
       </c>
       <c r="H1235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-274.4005611600004</v>
       </c>
       <c r="H1236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-278.2116879900004</v>
       </c>
       <c r="H1237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-274.6664879900004</v>
       </c>
       <c r="H1238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-271.5138879900004</v>
       </c>
       <c r="H1239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-267.2606019700004</v>
       </c>
       <c r="H1240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-254.5025879900004</v>
       </c>
       <c r="H1241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-269.2248670300004</v>
       </c>
       <c r="H1242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-255.3523032800004</v>
       </c>
       <c r="H1243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-213.2127515300004</v>
       </c>
       <c r="H1244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-213.2127515300004</v>
       </c>
       <c r="H1245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-216.8152514600004</v>
       </c>
       <c r="H1246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-223.1843754100003</v>
       </c>
       <c r="H1247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-213.2930000100004</v>
       </c>
       <c r="H1248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-202.4890753600004</v>
       </c>
       <c r="H1249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-191.4127753600004</v>
       </c>
       <c r="H1250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-207.5939753600003</v>
       </c>
       <c r="H1251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-192.4727753600004</v>
       </c>
       <c r="H1252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-172.8106087700004</v>
       </c>
       <c r="H1253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-165.0191087700003</v>
       </c>
       <c r="H1254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-151.7148087000003</v>
       </c>
       <c r="H1255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-165.2065087000003</v>
       </c>
       <c r="H1256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-168.1758869800003</v>
       </c>
       <c r="H1257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-165.4209869800004</v>
       </c>
       <c r="H1258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-175.3480556200003</v>
       </c>
       <c r="H1259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-168.3557556200003</v>
       </c>
       <c r="H1260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-172.8353970900003</v>
       </c>
       <c r="H1261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-155.2231970900003</v>
       </c>
       <c r="H1262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-152.3628291200003</v>
       </c>
       <c r="H1263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-153.3778291200003</v>
       </c>
       <c r="H1264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-149.6215291200003</v>
       </c>
       <c r="H1265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-96.37631234000031</v>
       </c>
       <c r="H1266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-82.56120856000031</v>
       </c>
       <c r="H1267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-82.56120856000031</v>
       </c>
       <c r="H1268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-60.90496419000031</v>
       </c>
       <c r="H1269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-8.945579370000317</v>
       </c>
       <c r="H1270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>2.488320629999683</v>
       </c>
       <c r="H1271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>58.67009544999969</v>
       </c>
       <c r="H1272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>76.12809550999968</v>
       </c>
       <c r="H1273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>117.9118465799997</v>
       </c>
       <c r="H1274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>165.6141669999997</v>
       </c>
       <c r="H1275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33568,7 +33568,7 @@
         <v>262.5735293299997</v>
       </c>
       <c r="H1276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:8">
@@ -33594,7 +33594,7 @@
         <v>209.3612640899997</v>
       </c>
       <c r="H1277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:8">
@@ -33620,7 +33620,7 @@
         <v>177.4872640899997</v>
       </c>
       <c r="H1278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>92.37611619999971</v>
       </c>
       <c r="H1280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -33698,7 +33698,7 @@
         <v>121.0331428299997</v>
       </c>
       <c r="H1281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:8">
@@ -33724,7 +33724,7 @@
         <v>149.3703069099997</v>
       </c>
       <c r="H1282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:8">
@@ -33750,7 +33750,7 @@
         <v>160.0757547299997</v>
       </c>
       <c r="H1283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>172.4650700699997</v>
       </c>
       <c r="H1284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>317.8866734599997</v>
       </c>
       <c r="H1299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>364.8382940099997</v>
       </c>
       <c r="H1300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>395.7938940099997</v>
       </c>
       <c r="H1301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>369.4530884599997</v>
       </c>
       <c r="H1302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>378.2621884599997</v>
       </c>
       <c r="H1303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>399.8606149799996</v>
       </c>
       <c r="H1304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>617.3032151499996</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>572.0649323499996</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>701.8533415099996</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>767.1114198999996</v>
       </c>
       <c r="H1310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>715.6943030199997</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>645.2944538099997</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>709.8496889199997</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>654.7073037999997</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>581.6766840499997</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>522.4686890899998</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>573.8948757799998</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>605.6750071499998</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>583.8808452699998</v>
       </c>
       <c r="H1319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>503.9438533999998</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>461.3937996499998</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>351.5632160099998</v>
       </c>
       <c r="H1322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>380.6031319999998</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>299.3380750699998</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>401.0966572799998</v>
       </c>
       <c r="H1330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>474.8522046799998</v>
       </c>
       <c r="H1331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>455.3885046799998</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>425.2494046799998</v>
       </c>
       <c r="H1333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1334" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>498.8719699499998</v>
       </c>
       <c r="H1335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>464.0364977499997</v>
       </c>
       <c r="H1336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>402.5536042499998</v>
       </c>
       <c r="H1337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:8">
@@ -35180,7 +35180,7 @@
         <v>368.0372042499998</v>
       </c>
       <c r="H1338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339" spans="1:8">
@@ -35232,7 +35232,7 @@
         <v>382.6208185599998</v>
       </c>
       <c r="H1340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="1:8">
